--- a/xlsx/國家人口列表_intext.xlsx
+++ b/xlsx/國家人口列表_intext.xlsx
@@ -29,7 +29,7 @@
     <t>世界政區索引</t>
   </si>
   <si>
-    <t>政策_政策_美國_國家人口列表</t>
+    <t>体育运动_体育运动_纳粹德国_國家人口列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E5%8E%86%E5%8F%B2</t>
@@ -12310,7 +12310,7 @@
         <v>586</v>
       </c>
       <c r="G295" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="H295" t="s">
         <v>4</v>
